--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\ENSEA\3A\PROJET\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4658814D-AFFD-4678-A3FC-E0046BAF7159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F4D13-FCC9-45AF-9717-6AEE5DDAFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{38D06C3D-04CC-49DA-BCC1-A3E383250DC1}"/>
   </bookViews>
@@ -33,8 +33,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">REFERENCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM </t>
+  </si>
+  <si>
+    <t>QUANTITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIX UNITAIRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUT TOTAL </t>
+  </si>
+  <si>
+    <t>FOURNISSEUR</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DATASHEET</t>
+  </si>
+  <si>
+    <t>STATUS COMMANDE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -44,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +424,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281C2C-7A3C-4E51-8326-88229A73EB86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2*F2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">E3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul_\OneDrive\Bureau\ESE\ProjetRobot\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F613EC1-82DE-4F34-9DC5-2A5D1ECF03D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24411270-CEBB-4A83-91AF-5C4763CA08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">REFERENCE </t>
   </si>
@@ -55,15 +55,9 @@
     <t>Quartz 16 MHz</t>
   </si>
   <si>
-    <t>Farnell : 2853935</t>
-  </si>
-  <si>
     <t>Connecteur SWD/STLink</t>
   </si>
   <si>
-    <t>(Farnell : 3226055)</t>
-  </si>
-  <si>
     <t>Connecteurs JST 2.54mm</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t>Lidar</t>
+  </si>
+  <si>
+    <t>Farnell</t>
   </si>
 </sst>
 </file>
@@ -532,7 +529,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
@@ -587,14 +584,14 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5">
-        <f>B2*G2</f>
+        <f t="shared" ref="H2:H14" si="0">B2*G2</f>
         <v>0</v>
       </c>
     </row>
@@ -605,11 +602,14 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="E3">
+        <v>2853935</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="4">
-        <f>B3*G3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -618,13 +618,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3226055</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="4">
-        <f>B4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -633,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4">
-        <f>B5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -648,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
-        <f>B6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -663,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4">
-        <f>B7*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -678,13 +681,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4">
-        <f>B8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -693,13 +696,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4">
-        <f>B9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -708,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4">
-        <f>B10*G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -723,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4">
-        <f>B11*G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -738,13 +741,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4">
-        <f>B12*G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -753,10 +756,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4">
-        <f>B13*G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -765,14 +768,14 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4">
-        <f>B14*G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul_\OneDrive\Bureau\ESE\ProjetRobot\2425_ESE_Projet_Torero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\ENSEA\3A\PROJET\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24411270-CEBB-4A83-91AF-5C4763CA08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B665F6-897D-4621-A658-5484F498613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">REFERENCE </t>
   </si>
@@ -122,12 +133,24 @@
   </si>
   <si>
     <t>Farnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KEMET C1206C105K3PACTU</t>
+  </si>
+  <si>
+    <t>C1206C105K3PACTU</t>
+  </si>
+  <si>
+    <t>ceramic capacitor 1uF for LDO regulator 3,3v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,10 +240,16 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,24 +558,24 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -568,7 +597,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -578,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -590,12 +619,12 @@
         <v>16</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H14" si="0">B2*G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H15" si="0">B2*G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -608,12 +637,12 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -626,12 +655,12 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,12 +670,12 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -656,12 +685,12 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -671,12 +700,12 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -686,12 +715,12 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -701,12 +730,12 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -716,27 +745,27 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -746,31 +775,31 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -778,152 +807,175 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\ENSEA\3A\PROJET\2425_ESE_Projet_Torero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul_\OneDrive\Bureau\ESE\ProjetRobot\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B665F6-897D-4621-A658-5484F498613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33AADB3-DBEF-4947-9E1E-F3C238FE2365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">REFERENCE </t>
   </si>
@@ -123,9 +112,6 @@
     <t>Capteur bordure</t>
   </si>
   <si>
-    <t>NOLAN 2000</t>
-  </si>
-  <si>
     <t>YDLIDAR X4</t>
   </si>
   <si>
@@ -142,6 +128,12 @@
   </si>
   <si>
     <t>ceramic capacitor 1uF for LDO regulator 3,3v</t>
+  </si>
+  <si>
+    <t>QRD1113/QRD1114</t>
+  </si>
+  <si>
+    <t>1467857/1467858</t>
   </si>
 </sst>
 </file>
@@ -149,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,14 +156,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,14 +224,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -558,24 +541,24 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,7 +580,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -607,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,12 +602,12 @@
         <v>16</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H15" si="0">B2*G2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -635,14 +618,14 @@
         <v>2853935</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -653,14 +636,14 @@
         <v>3226055</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -670,12 +653,12 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -685,12 +668,12 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -700,12 +683,12 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -715,12 +698,12 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -730,12 +713,12 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -745,61 +728,70 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -807,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -815,161 +807,161 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7">
         <v>0.37</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul_\OneDrive\Bureau\ESE\ProjetRobot\2425_ESE_Projet_Torero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\ENSEA\3A\PROJET\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33AADB3-DBEF-4947-9E1E-F3C238FE2365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219D73E-7E7F-47AE-9061-56A76C4EC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">REFERENCE </t>
   </si>
@@ -134,6 +145,9 @@
   </si>
   <si>
     <t>1467857/1467858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résistance boot flash user button </t>
   </si>
 </sst>
 </file>
@@ -158,7 +172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,12 +235,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -233,6 +247,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,24 +566,24 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -580,7 +605,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -590,25 +615,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12">
         <f t="shared" ref="H2:H15" si="0">B2*G2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -620,13 +645,13 @@
       <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -638,13 +663,13 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -653,13 +678,13 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -668,13 +693,13 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -683,13 +708,13 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -698,13 +723,13 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -713,13 +738,13 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -728,16 +753,16 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" t="s">
@@ -752,13 +777,13 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -767,31 +792,31 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -799,11 +824,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -818,150 +843,157 @@
       <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>0.37</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\ENSEA\3A\PROJET\2425_ESE_Projet_Torero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219D73E-7E7F-47AE-9061-56A76C4EC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C260B4-DC06-4884-ACA6-52A1B07A0A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t xml:space="preserve">REFERENCE </t>
   </si>
@@ -60,9 +61,6 @@
     <t>DATASHEET</t>
   </si>
   <si>
-    <t>ITEM</t>
-  </si>
-  <si>
     <t>Quartz 16 MHz</t>
   </si>
   <si>
@@ -132,22 +130,109 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t xml:space="preserve"> KEMET C1206C105K3PACTU</t>
-  </si>
-  <si>
-    <t>C1206C105K3PACTU</t>
-  </si>
-  <si>
-    <t>ceramic capacitor 1uF for LDO regulator 3,3v</t>
-  </si>
-  <si>
-    <t>QRD1113/QRD1114</t>
-  </si>
-  <si>
     <t>1467857/1467858</t>
   </si>
   <si>
     <t xml:space="preserve">Résistance boot flash user button </t>
+  </si>
+  <si>
+    <t>QRD1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résistance 10 k </t>
+  </si>
+  <si>
+    <t>Capacité 20p</t>
+  </si>
+  <si>
+    <t>Capacité 100n</t>
+  </si>
+  <si>
+    <t>Capacité 1u</t>
+  </si>
+  <si>
+    <t>Capacité 4n7</t>
+  </si>
+  <si>
+    <t>Capacité 10n</t>
+  </si>
+  <si>
+    <t>Capacité 22u</t>
+  </si>
+  <si>
+    <t>Capacité 47u</t>
+  </si>
+  <si>
+    <t>Capacité 10u</t>
+  </si>
+  <si>
+    <t>Diode rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode verte </t>
+  </si>
+  <si>
+    <t>Inductance passe bas VDDA stm32</t>
+  </si>
+  <si>
+    <t>Inductance 4u7</t>
+  </si>
+  <si>
+    <t>Régulateur tension 5V</t>
+  </si>
+  <si>
+    <t>Résistance 10</t>
+  </si>
+  <si>
+    <t>Résistance 120</t>
+  </si>
+  <si>
+    <t>Résistance 140</t>
+  </si>
+  <si>
+    <t>Résistance 1k</t>
+  </si>
+  <si>
+    <t>Résistance 100k</t>
+  </si>
+  <si>
+    <t>Résistance 20</t>
+  </si>
+  <si>
+    <t>Résistance 16k</t>
+  </si>
+  <si>
+    <t>Résistance 40k2</t>
+  </si>
+  <si>
+    <t>Résistance 7k68</t>
+  </si>
+  <si>
+    <t>Résistance 300</t>
+  </si>
+  <si>
+    <t>Résistance 15k3</t>
+  </si>
+  <si>
+    <t>Connecteur JST 1x8 2,5mm Lidar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecteurs JST 1x 2 2,5mm (batterie + switch) </t>
+  </si>
+  <si>
+    <t>Connecteur JST 1x6 2,5mm moteur</t>
+  </si>
+  <si>
+    <t>Connecteur Pin header 2x7 1,27mm ST Link</t>
+  </si>
+  <si>
+    <t>Connecteur Pin header 2x8 1,27mm debug Lidar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch push </t>
+  </si>
+  <si>
+    <t>stm32 NRST et Boot Flash</t>
   </si>
 </sst>
 </file>
@@ -172,7 +257,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +267,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,17 +326,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,443 +641,519 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G14" si="0">F2*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2853935</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3226055</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:H15" si="0">B2*G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2853935</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3226055</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.74</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C1C2E5-0315-4FBC-8001-A1A2746180F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>